--- a/base.xlsx
+++ b/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Dashboard-vendas-xbox-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531222E-7F2D-40AE-B75F-0B8D677EA68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C37130-269B-404B-9AA1-50D787C35396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="324">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>Qual é a receita total proveniente apenas dos planos anuais e com confirmação de renovação</t>
+  </si>
+  <si>
+    <t>XBOX GAME PASS SUBSCRIPITION SALES</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1055,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1104,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1121,13 +1131,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1152,7 +1171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,6 +1179,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1252,13 +1274,125 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[base.xlsx]C̳álculos!Tabela dinâmica3</c:name>
-    <c:fmtId val="3"/>
+    <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent6"/>
@@ -1350,7 +1484,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Annual</c:v>
+                  <c:v>Monthly</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Quarterly</c:v>
@@ -1365,7 +1499,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1162</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1257</c:v>
@@ -1375,7 +1509,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82FB-4516-8F73-4CDB0D283D4F}"/>
+              <c16:uniqueId val="{00000000-B7D2-4271-B192-2461BC7F1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,16 +1652,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2573,6 +2700,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154CB0BF-3E6F-45CA-9AF8-0D9B77A397A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="3552825"/>
+          <a:ext cx="933450" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>159524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB6EB59-D7BF-4025-9314-A79F9FE827B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6988951" y="3519449"/>
+          <a:ext cx="973950" cy="973950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2775,63 +3002,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>743201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22377ACA-C41F-4C57-910A-C705FC49CE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A18F2FB-9D20-4825-A2DD-231A79795C9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="66867" b="-4441"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="166688" y="178593"/>
+          <a:ext cx="576513" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1759762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>211950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E336414D-1B56-46E6-B67D-4BCE9C2EF3EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="881062" y="130969"/>
+          <a:ext cx="878700" cy="878700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4262437</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5221608E-85A7-4581-8EB9-B705DE73C20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2119312" y="952500"/>
+          <a:ext cx="5036344" cy="2393156"/>
+          <a:chOff x="4048125" y="988219"/>
+          <a:chExt cx="5036344" cy="2393156"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177E710D-8FFB-495F-A941-01200D1DB379}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4048125" y="988219"/>
+            <a:ext cx="5036344" cy="2393156"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Gráfico 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B50F98-ADCE-4D91-B882-ABC8183685DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4169570" y="1216819"/>
+          <a:ext cx="4772025" cy="1981200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1952624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Subscription Type">
+            <xdr:cNvPr id="5" name="Subscription Type">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9F1C06-38E5-4876-8D6E-F931CE283B67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406A7A3C-0127-49CF-B5E6-4B2EE4EAE16F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2858,8 +3256,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4314825" y="3248025"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="0" y="1309689"/>
+              <a:ext cx="1952624" cy="1404936"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2887,54 +3285,6 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1243263</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A18F2FB-9D20-4825-A2DD-231A79795C9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="66867" b="-4441"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="238124"/>
-          <a:ext cx="576513" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7449,7 +7799,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A71E7AB6-A6F4-44C9-BEC2-8829A7E49A7D}" name="Tabela dinâmica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A71E7AB6-A6F4-44C9-BEC2-8829A7E49A7D}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="D14:E17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7467,10 +7817,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="1"/>
-        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7486,7 +7836,7 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -7504,7 +7854,7 @@
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7535,6 +7885,33 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight18" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7549,7 +7926,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E38E59D8-C360-4478-A3F1-3676D00B9593}" name="Tabela dinâmica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E38E59D8-C360-4478-A3F1-3676D00B9593}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Name">
   <location ref="B14:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7601,17 +7978,17 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{42E1EAD4-2ED3-4985-A46F-99F337AC00BC}" sourceName="Subscription Type">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{CEB70CFD-0641-4457-8091-F3AC85CB7FAB}" sourceName="Subscription Type">
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1016025617">
       <items count="4">
-        <i x="1" s="1"/>
-        <i x="0"/>
+        <i x="1"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1" nd="1"/>
+        <i x="3" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7620,7 +7997,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subscription Type" xr10:uid="{FE52AC71-582C-4224-ACFB-D5661273BB50}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Subscription Type" xr10:uid="{6CA52E1E-BE28-436D-AFF8-28FA5100D9A9}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -7974,8 +8351,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8165,7 +8542,7 @@
     <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30">
@@ -8205,7 +8582,7 @@
       <c r="L1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8249,7 +8626,7 @@
       <c r="L2" s="11">
         <v>5</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <f>SUM(F2,I2,K2-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>10</v>
       </c>
@@ -8376,7 +8753,7 @@
       <c r="L5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <f>SUM(F5,I5,K5-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>27</v>
       </c>
@@ -8503,7 +8880,7 @@
       <c r="L8" s="11">
         <v>10</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <f>SUM(F8,I8,K8-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>55</v>
       </c>
@@ -8589,7 +8966,7 @@
       <c r="L10" s="11">
         <v>5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f>SUM(F10,I10,K10-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>60</v>
       </c>
@@ -8716,7 +9093,7 @@
       <c r="L13" s="11">
         <v>20</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <f>SUM(F13,I13,K13-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -8843,7 +9220,7 @@
       <c r="L16" s="11">
         <v>8</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <f>SUM(F16,I16,K16-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>17</v>
       </c>
@@ -8970,7 +9347,7 @@
       <c r="L19" s="11">
         <v>7</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <f>SUM(F19,I19,K19-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -9097,7 +9474,7 @@
       <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <f>SUM(F22,I22,K22-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -9224,7 +9601,7 @@
       <c r="L25" s="11">
         <v>20</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="15">
         <f>SUM(F25,I25,K25-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>10</v>
       </c>
@@ -9351,7 +9728,7 @@
       <c r="L28" s="11">
         <v>5</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <f>SUM(F28,I28,K28-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>25</v>
       </c>
@@ -9478,7 +9855,7 @@
       <c r="L31" s="11">
         <v>7</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <f>SUM(F31,I31,K31-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -9605,7 +9982,7 @@
       <c r="L34" s="11">
         <v>3</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <f>SUM(F34,I34,K34-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>42</v>
       </c>
@@ -9773,7 +10150,7 @@
       <c r="L38" s="11">
         <v>7</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="15">
         <f>SUM(F38,I38,K38-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -9900,7 +10277,7 @@
       <c r="L41" s="11">
         <v>15</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="15">
         <f>SUM(F41,I41,K41-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -10027,7 +10404,7 @@
       <c r="L44" s="11">
         <v>20</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="15">
         <f>SUM(F44,I44,K44-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -10154,7 +10531,7 @@
       <c r="L47" s="11">
         <v>5</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="15">
         <f>SUM(F47,I47,K47-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -10281,7 +10658,7 @@
       <c r="L50" s="11">
         <v>3</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="15">
         <f>SUM(F50,I50,K50-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>62</v>
       </c>
@@ -10408,7 +10785,7 @@
       <c r="L53" s="11">
         <v>7</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="15">
         <f>SUM(F53,I53,K53-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>38</v>
       </c>
@@ -10535,7 +10912,7 @@
       <c r="L56" s="11">
         <v>20</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="15">
         <f>SUM(F56,I56,K56-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -10662,7 +11039,7 @@
       <c r="L59" s="11">
         <v>3</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="15">
         <f>SUM(F59,I59,K59-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -10789,7 +11166,7 @@
       <c r="L62" s="11">
         <v>5</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="15">
         <f>SUM(F62,I62,K62-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>50</v>
       </c>
@@ -10916,7 +11293,7 @@
       <c r="L65" s="11">
         <v>20</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="15">
         <f>SUM(F65,I65,K65-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -11043,7 +11420,7 @@
       <c r="L68" s="11">
         <v>7</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="15">
         <f>SUM(F68,I68,K68-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>48</v>
       </c>
@@ -11170,7 +11547,7 @@
       <c r="L71" s="11">
         <v>15</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="15">
         <f>SUM(F71,I71,K71-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -11297,7 +11674,7 @@
       <c r="L74" s="11">
         <v>20</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M74" s="15">
         <f>SUM(F74,I74,K74-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>45</v>
       </c>
@@ -11424,7 +11801,7 @@
       <c r="L77" s="11">
         <v>5</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M77" s="15">
         <f>SUM(F77,I77,K77-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>60</v>
       </c>
@@ -11551,7 +11928,7 @@
       <c r="L80" s="11">
         <v>3</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="15">
         <f>SUM(F80,I80,K80-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>57</v>
       </c>
@@ -11678,7 +12055,7 @@
       <c r="L83" s="11">
         <v>7</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M83" s="15">
         <f>SUM(F83,I83,K83-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -11805,7 +12182,7 @@
       <c r="L86" s="11">
         <v>20</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M86" s="15">
         <f>SUM(F86,I86,K86-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -11932,7 +12309,7 @@
       <c r="L89" s="11">
         <v>3</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="15">
         <f>SUM(F89,I89,K89-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>57</v>
       </c>
@@ -12059,7 +12436,7 @@
       <c r="L92" s="11">
         <v>5</v>
       </c>
-      <c r="M92" s="16">
+      <c r="M92" s="15">
         <f>SUM(F92,I92,K92-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -12186,7 +12563,7 @@
       <c r="L95" s="11">
         <v>20</v>
       </c>
-      <c r="M95" s="16">
+      <c r="M95" s="15">
         <f>SUM(F95,I95,K95-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -12313,7 +12690,7 @@
       <c r="L98" s="11">
         <v>7</v>
       </c>
-      <c r="M98" s="16">
+      <c r="M98" s="15">
         <f>SUM(F98,I98,K98-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -12440,7 +12817,7 @@
       <c r="L101" s="11">
         <v>15</v>
       </c>
-      <c r="M101" s="16">
+      <c r="M101" s="15">
         <f>SUM(F101,I101,K101-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>50</v>
       </c>
@@ -12567,7 +12944,7 @@
       <c r="L104" s="11">
         <v>20</v>
       </c>
-      <c r="M104" s="16">
+      <c r="M104" s="15">
         <f>SUM(F104,I104,K104-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>45</v>
       </c>
@@ -12735,7 +13112,7 @@
       <c r="L108" s="11">
         <v>7</v>
       </c>
-      <c r="M108" s="16">
+      <c r="M108" s="15">
         <f>SUM(F108,I108,K108-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>48</v>
       </c>
@@ -12862,7 +13239,7 @@
       <c r="L111" s="11">
         <v>15</v>
       </c>
-      <c r="M111" s="16">
+      <c r="M111" s="15">
         <f>SUM(F111,I111,K111-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>50</v>
       </c>
@@ -12989,7 +13366,7 @@
       <c r="L114" s="11">
         <v>20</v>
       </c>
-      <c r="M114" s="16">
+      <c r="M114" s="15">
         <f>SUM(F114,I114,K114-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -13116,7 +13493,7 @@
       <c r="L117" s="11">
         <v>5</v>
       </c>
-      <c r="M117" s="16">
+      <c r="M117" s="15">
         <f>SUM(F117,I117,K117-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>55</v>
       </c>
@@ -13243,7 +13620,7 @@
       <c r="L120" s="11">
         <v>3</v>
       </c>
-      <c r="M120" s="16">
+      <c r="M120" s="15">
         <f>SUM(F120,I120,K120-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>57</v>
       </c>
@@ -13370,7 +13747,7 @@
       <c r="L123" s="11">
         <v>7</v>
       </c>
-      <c r="M123" s="16">
+      <c r="M123" s="15">
         <f>SUM(F123,I123,K123-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -13497,7 +13874,7 @@
       <c r="L126" s="11">
         <v>20</v>
       </c>
-      <c r="M126" s="16">
+      <c r="M126" s="15">
         <f>SUM(F126,I126,K126-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -13624,7 +14001,7 @@
       <c r="L129" s="11">
         <v>3</v>
       </c>
-      <c r="M129" s="16">
+      <c r="M129" s="15">
         <f>SUM(F129,I129,K129-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>52</v>
       </c>
@@ -13751,7 +14128,7 @@
       <c r="L132" s="11">
         <v>15</v>
       </c>
-      <c r="M132" s="16">
+      <c r="M132" s="15">
         <f>SUM(F132,I132,K132-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>50</v>
       </c>
@@ -13878,7 +14255,7 @@
       <c r="L135" s="11">
         <v>7</v>
       </c>
-      <c r="M135" s="16">
+      <c r="M135" s="15">
         <f>SUM(F135,I135,K135-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>58</v>
       </c>
@@ -14005,7 +14382,7 @@
       <c r="L138" s="11">
         <v>7</v>
       </c>
-      <c r="M138" s="16">
+      <c r="M138" s="15">
         <f>SUM(F138,I138,K138-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -14132,7 +14509,7 @@
       <c r="L141" s="11">
         <v>15</v>
       </c>
-      <c r="M141" s="16">
+      <c r="M141" s="15">
         <f>SUM(F141,I141,K141-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -14259,7 +14636,7 @@
       <c r="L144" s="11">
         <v>20</v>
       </c>
-      <c r="M144" s="16">
+      <c r="M144" s="15">
         <f>SUM(F144,I144,K144-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>10</v>
       </c>
@@ -14386,7 +14763,7 @@
       <c r="L147" s="11">
         <v>5</v>
       </c>
-      <c r="M147" s="16">
+      <c r="M147" s="15">
         <f>SUM(F147,I147,K147-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>25</v>
       </c>
@@ -14513,7 +14890,7 @@
       <c r="L150" s="11">
         <v>3</v>
       </c>
-      <c r="M150" s="16">
+      <c r="M150" s="15">
         <f>SUM(F150,I150,K150-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>57</v>
       </c>
@@ -14640,7 +15017,7 @@
       <c r="L153" s="11">
         <v>7</v>
       </c>
-      <c r="M153" s="16">
+      <c r="M153" s="15">
         <f>SUM(F153,I153,K153-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -14767,7 +15144,7 @@
       <c r="L156" s="11">
         <v>20</v>
       </c>
-      <c r="M156" s="16">
+      <c r="M156" s="15">
         <f>SUM(F156,I156,K156-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -14894,7 +15271,7 @@
       <c r="L159" s="11">
         <v>3</v>
       </c>
-      <c r="M159" s="16">
+      <c r="M159" s="15">
         <f>SUM(F159,I159,K159-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>52</v>
       </c>
@@ -15021,7 +15398,7 @@
       <c r="L162" s="11">
         <v>15</v>
       </c>
-      <c r="M162" s="16">
+      <c r="M162" s="15">
         <f>SUM(F162,I162,K162-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -15148,7 +15525,7 @@
       <c r="L165" s="11">
         <v>7</v>
       </c>
-      <c r="M165" s="16">
+      <c r="M165" s="15">
         <f>SUM(F165,I165,K165-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>58</v>
       </c>
@@ -15275,7 +15652,7 @@
       <c r="L168" s="11">
         <v>20</v>
       </c>
-      <c r="M168" s="16">
+      <c r="M168" s="15">
         <f>SUM(F168,I168,K168-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>45</v>
       </c>
@@ -15402,7 +15779,7 @@
       <c r="L171" s="11">
         <v>5</v>
       </c>
-      <c r="M171" s="16">
+      <c r="M171" s="15">
         <f>SUM(F171,I171,K171-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>60</v>
       </c>
@@ -15529,7 +15906,7 @@
       <c r="L174" s="11">
         <v>3</v>
       </c>
-      <c r="M174" s="16">
+      <c r="M174" s="15">
         <f>SUM(F174,I174,K174-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>52</v>
       </c>
@@ -15697,7 +16074,7 @@
       <c r="L178" s="11">
         <v>7</v>
       </c>
-      <c r="M178" s="16">
+      <c r="M178" s="15">
         <f>SUM(F178,I178,K178-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>58</v>
       </c>
@@ -15824,7 +16201,7 @@
       <c r="L181" s="11">
         <v>15</v>
       </c>
-      <c r="M181" s="16">
+      <c r="M181" s="15">
         <f>SUM(F181,I181,K181-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -15951,7 +16328,7 @@
       <c r="L184" s="11">
         <v>20</v>
       </c>
-      <c r="M184" s="16">
+      <c r="M184" s="15">
         <f>SUM(F184,I184,K184-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -16078,7 +16455,7 @@
       <c r="L187" s="11">
         <v>5</v>
       </c>
-      <c r="M187" s="16">
+      <c r="M187" s="15">
         <f>SUM(F187,I187,K187-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>25</v>
       </c>
@@ -16205,7 +16582,7 @@
       <c r="L190" s="11">
         <v>3</v>
       </c>
-      <c r="M190" s="16">
+      <c r="M190" s="15">
         <f>SUM(F190,I190,K190-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>27</v>
       </c>
@@ -16332,7 +16709,7 @@
       <c r="L193" s="11">
         <v>7</v>
       </c>
-      <c r="M193" s="16">
+      <c r="M193" s="15">
         <f>SUM(F193,I193,K193-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>23</v>
       </c>
@@ -16459,7 +16836,7 @@
       <c r="L196" s="11">
         <v>20</v>
       </c>
-      <c r="M196" s="16">
+      <c r="M196" s="15">
         <f>SUM(F196,I196,K196-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>5</v>
       </c>
@@ -16586,7 +16963,7 @@
       <c r="L199" s="11">
         <v>3</v>
       </c>
-      <c r="M199" s="16">
+      <c r="M199" s="15">
         <f>SUM(F199,I199,K199-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -16713,7 +17090,7 @@
       <c r="L202" s="11">
         <v>15</v>
       </c>
-      <c r="M202" s="16">
+      <c r="M202" s="15">
         <f>SUM(F202,I202,K202-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -16840,7 +17217,7 @@
       <c r="L205" s="11">
         <v>7</v>
       </c>
-      <c r="M205" s="16">
+      <c r="M205" s="15">
         <f>SUM(F205,I205,K205-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -16967,7 +17344,7 @@
       <c r="L208" s="11">
         <v>7</v>
       </c>
-      <c r="M208" s="16">
+      <c r="M208" s="15">
         <f>SUM(F208,I208,K208-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -17094,7 +17471,7 @@
       <c r="L211" s="11">
         <v>15</v>
       </c>
-      <c r="M211" s="16">
+      <c r="M211" s="15">
         <f>SUM(F211,I211,K211-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>50</v>
       </c>
@@ -17221,7 +17598,7 @@
       <c r="L214" s="11">
         <v>20</v>
       </c>
-      <c r="M214" s="16">
+      <c r="M214" s="15">
         <f>SUM(F214,I214,K214-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -17348,7 +17725,7 @@
       <c r="L217" s="11">
         <v>5</v>
       </c>
-      <c r="M217" s="16">
+      <c r="M217" s="15">
         <f>SUM(F217,I217,K217-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>60</v>
       </c>
@@ -17475,7 +17852,7 @@
       <c r="L220" s="11">
         <v>3</v>
       </c>
-      <c r="M220" s="16">
+      <c r="M220" s="15">
         <f>SUM(F220,I220,K220-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>62</v>
       </c>
@@ -17602,7 +17979,7 @@
       <c r="L223" s="11">
         <v>7</v>
       </c>
-      <c r="M223" s="16">
+      <c r="M223" s="15">
         <f>SUM(F223,I223,K223-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>38</v>
       </c>
@@ -17729,7 +18106,7 @@
       <c r="L226" s="11">
         <v>20</v>
       </c>
-      <c r="M226" s="16">
+      <c r="M226" s="15">
         <f>SUM(F226,I226,K226-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>25</v>
       </c>
@@ -17856,7 +18233,7 @@
       <c r="L229" s="11">
         <v>3</v>
       </c>
-      <c r="M229" s="16">
+      <c r="M229" s="15">
         <f>SUM(F229,I229,K229-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -17983,7 +18360,7 @@
       <c r="L232" s="11">
         <v>15</v>
       </c>
-      <c r="M232" s="16">
+      <c r="M232" s="15">
         <f>SUM(F232,I232,K232-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>30</v>
       </c>
@@ -18110,7 +18487,7 @@
       <c r="L235" s="11">
         <v>7</v>
       </c>
-      <c r="M235" s="16">
+      <c r="M235" s="15">
         <f>SUM(F235,I235,K235-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>38</v>
       </c>
@@ -18237,7 +18614,7 @@
       <c r="L238" s="11">
         <v>15</v>
       </c>
-      <c r="M238" s="16">
+      <c r="M238" s="15">
         <f>SUM(F238,I238,K238-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>25</v>
       </c>
@@ -18364,7 +18741,7 @@
       <c r="L241" s="11">
         <v>5</v>
       </c>
-      <c r="M241" s="16">
+      <c r="M241" s="15">
         <f>SUM(F241,I241,K241-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>35</v>
       </c>
@@ -18491,7 +18868,7 @@
       <c r="L244" s="11">
         <v>3</v>
       </c>
-      <c r="M244" s="16">
+      <c r="M244" s="15">
         <f>SUM(F244,I244,K244-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>37</v>
       </c>
@@ -18618,7 +18995,7 @@
       <c r="L247" s="11">
         <v>7</v>
       </c>
-      <c r="M247" s="16">
+      <c r="M247" s="15">
         <f>SUM(F247,I247,K247-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>53</v>
       </c>
@@ -18745,7 +19122,7 @@
       <c r="L250" s="11">
         <v>20</v>
       </c>
-      <c r="M250" s="16">
+      <c r="M250" s="15">
         <f>SUM(F250,I250,K250-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -18872,7 +19249,7 @@
       <c r="L253" s="11">
         <v>3</v>
       </c>
-      <c r="M253" s="16">
+      <c r="M253" s="15">
         <f>SUM(F253,I253,K253-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -18999,7 +19376,7 @@
       <c r="L256" s="11">
         <v>15</v>
       </c>
-      <c r="M256" s="16">
+      <c r="M256" s="15">
         <f>SUM(F256,I256,K256-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>10</v>
       </c>
@@ -19085,7 +19462,7 @@
       <c r="L258" s="11">
         <v>7</v>
       </c>
-      <c r="M258" s="16">
+      <c r="M258" s="15">
         <f>SUM(F258,I258,K258-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>18</v>
       </c>
@@ -19212,7 +19589,7 @@
       <c r="L261" s="11">
         <v>15</v>
       </c>
-      <c r="M261" s="16">
+      <c r="M261" s="15">
         <f>SUM(F261,I261,K261-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -19339,7 +19716,7 @@
       <c r="L264" s="11">
         <v>20</v>
       </c>
-      <c r="M264" s="16">
+      <c r="M264" s="15">
         <f>SUM(F264,I264,K264-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -19466,7 +19843,7 @@
       <c r="L267" s="11">
         <v>5</v>
       </c>
-      <c r="M267" s="16">
+      <c r="M267" s="15">
         <f>SUM(F267,I267,K267-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>30</v>
       </c>
@@ -19593,7 +19970,7 @@
       <c r="L270" s="11">
         <v>3</v>
       </c>
-      <c r="M270" s="16">
+      <c r="M270" s="15">
         <f>SUM(F270,I270,K270-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>22</v>
       </c>
@@ -19720,7 +20097,7 @@
       <c r="L273" s="11">
         <v>7</v>
       </c>
-      <c r="M273" s="16">
+      <c r="M273" s="15">
         <f>SUM(F273,I273,K273-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>28</v>
       </c>
@@ -19847,7 +20224,7 @@
       <c r="L276" s="11">
         <v>20</v>
       </c>
-      <c r="M276" s="16">
+      <c r="M276" s="15">
         <f>SUM(F276,I276,K276-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -19974,7 +20351,7 @@
       <c r="L279" s="11">
         <v>3</v>
       </c>
-      <c r="M279" s="16">
+      <c r="M279" s="15">
         <f>SUM(F279,I279,K279-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>62</v>
       </c>
@@ -20101,7 +20478,7 @@
       <c r="L282" s="11">
         <v>15</v>
       </c>
-      <c r="M282" s="16">
+      <c r="M282" s="15">
         <f>SUM(F282,I282,K282-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>20</v>
       </c>
@@ -20228,7 +20605,7 @@
       <c r="L285" s="11">
         <v>7</v>
       </c>
-      <c r="M285" s="16">
+      <c r="M285" s="15">
         <f>SUM(F285,I285,K285-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>38</v>
       </c>
@@ -20355,7 +20732,7 @@
       <c r="L288" s="11">
         <v>20</v>
       </c>
-      <c r="M288" s="16">
+      <c r="M288" s="15">
         <f>SUM(F288,I288,K288-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>15</v>
       </c>
@@ -20482,7 +20859,7 @@
       <c r="L291" s="11">
         <v>5</v>
       </c>
-      <c r="M291" s="16">
+      <c r="M291" s="15">
         <f>SUM(F291,I291,K291-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>40</v>
       </c>
@@ -20609,7 +20986,7 @@
       <c r="L294" s="11">
         <v>3</v>
       </c>
-      <c r="M294" s="16">
+      <c r="M294" s="15">
         <f>SUM(F294,I294,K294-Tabela1[[#This Row],[Coupon Value]])</f>
         <v>32</v>
       </c>
@@ -20709,7 +21086,7 @@
       <c r="J297" s="8"/>
       <c r="K297" s="11"/>
       <c r="L297" s="11"/>
-      <c r="M297" s="16"/>
+      <c r="M297" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -20727,8 +21104,8 @@
   </sheetPr>
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20805,10 +21182,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1162</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="19">
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -20818,7 +21195,7 @@
       <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="19">
         <v>1257</v>
       </c>
     </row>
@@ -20826,61 +21203,87 @@
       <c r="D17" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="14">
-        <v>2419</v>
+      <c r="E17" s="19">
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="7" customWidth="1"/>
+    <col min="5" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="6.625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="30" customHeight="1"/>
+    <row r="7" spans="1:4" ht="25.5" customHeight="1"/>
+    <row r="8" spans="1:4" ht="33" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="25.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="7" customWidth="1"/>
-    <col min="3" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="6.625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="18"/>
-    </row>
-    <row r="2" spans="1:1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" ht="23.25" customHeight="1"/>
-    <row r="5" spans="1:1" ht="21.75" customHeight="1"/>
-    <row r="6" spans="1:1" ht="30" customHeight="1"/>
-    <row r="7" spans="1:1" ht="25.5" customHeight="1"/>
-    <row r="8" spans="1:1" ht="33" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -21135,27 +21538,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21172,23 +21574,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Dashboard-vendas-xbox-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C0BC5-B299-4B80-A8E7-34DF05DBFA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B45A0D-0C56-4A1C-B60C-E294711D41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -1013,9 +1013,6 @@
     <t>XBOX GAME PASS SUBSCRIPITION SALES</t>
   </si>
   <si>
-    <t>mar</t>
-  </si>
-  <si>
     <t>jun</t>
   </si>
   <si>
@@ -1028,9 +1025,6 @@
     <t>set</t>
   </si>
   <si>
-    <t>Julia Rocha Bem Vinda!</t>
-  </si>
-  <si>
     <t>Contagem de Auto Renewal</t>
   </si>
   <si>
@@ -1038,6 +1032,12 @@
   </si>
   <si>
     <t>Contagem de Subscriber ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation period: 01/01/2024 - 31/12/2024 | Update date: 06/01/2026 </t>
+  </si>
+  <si>
+    <t>&gt;Julia Rocha Bem Vinda!</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1089,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -1149,7 +1155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1175,13 +1181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1219,7 +1234,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1957,22 +1977,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>C̳álculos!$B$24:$B$29</c:f>
+              <c:f>C̳álculos!$B$24:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>mar</c:v>
+                  <c:v>jun</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>jun</c:v>
+                  <c:v>jul</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>jul</c:v>
+                  <c:v>ago</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ago</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>set</c:v>
                 </c:pt>
               </c:strCache>
@@ -1980,23 +1997,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>C̳álculos!$C$24:$C$29</c:f>
+              <c:f>C̳álculos!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -2766,6 +2780,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3151,6 +3206,48 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3184,7 +3281,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6759,16 +6911,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>743201</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>564607</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6790,7 +6942,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="166688" y="178593"/>
+          <a:off x="2214563" y="166686"/>
           <a:ext cx="576513" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6803,15 +6955,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>881062</xdr:colOff>
+      <xdr:colOff>488156</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1759762</xdr:colOff>
+      <xdr:colOff>1366856</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>211950</xdr:rowOff>
+      <xdr:rowOff>200044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6840,7 +6992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="881062" y="130969"/>
+          <a:off x="488156" y="119063"/>
           <a:ext cx="878700" cy="878700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6963,14 +7115,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>297657</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1952624</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7006,7 +7158,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2047876"/>
+              <a:off x="0" y="1595438"/>
               <a:ext cx="1952624" cy="1404936"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7150,14 +7302,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1952624</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7193,7 +7345,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3452813"/>
+              <a:off x="0" y="3000375"/>
               <a:ext cx="1952624" cy="3464718"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13867,7 +14019,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Subscriber ID" fld="0" subtotal="count" baseField="9" baseItem="1"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="3">
     <chartFormat chart="11" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -13878,24 +14030,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="14" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15841,7 +15975,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A657DDE0-7586-456B-ADAF-E0F2E0127713}" name="Tabela dinâmica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="B23:C29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B23:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
       <items count="297">
@@ -16548,7 +16682,7 @@
         <item sd="0" x="0"/>
         <item h="1" sd="0" x="1"/>
         <item h="1" sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
         <item h="1" sd="0" x="5"/>
         <item sd="0" x="6"/>
@@ -16566,10 +16700,7 @@
   <rowFields count="1">
     <field x="13"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="6"/>
     </i>
@@ -17139,7 +17270,7 @@
       <items count="14">
         <i x="1"/>
         <i x="2"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="4"/>
         <i x="5"/>
         <i x="6" s="1"/>
@@ -30273,8 +30404,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="4.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
@@ -30413,7 +30544,7 @@
         <v>314</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -30465,7 +30596,7 @@
         <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -30473,7 +30604,7 @@
         <v>322</v>
       </c>
       <c r="C24" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -30481,13 +30612,13 @@
         <v>323</v>
       </c>
       <c r="C25" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -30495,7 +30626,7 @@
         <v>324</v>
       </c>
       <c r="C26" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>22</v>
@@ -30520,10 +30651,10 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C28" s="19">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>18</v>
@@ -30533,12 +30664,6 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="19">
-        <v>117</v>
-      </c>
       <c r="G29" s="13" t="s">
         <v>315</v>
       </c>
@@ -30566,7 +30691,7 @@
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -30576,7 +30701,7 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -30592,10 +30717,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30609,27 +30734,30 @@
     <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="17"/>
     </row>
-    <row r="2" spans="1:4" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
       <c r="D2" s="18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
+      <c r="F2" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="23.25" customHeight="1"/>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1"/>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1"/>
-    <row r="8" spans="1:4" ht="33" customHeight="1"/>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1"/>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A5" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickTop="1"/>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="33" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
